--- a/english-trans/result/table_result.xlsx
+++ b/english-trans/result/table_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,252 +436,242 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Cycle
+Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>KI
+(1/km)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tus</t>
+          <t>Distance
+(mi)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Sat</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sun</t>
-        </is>
-      </c>
+          <t>Percent Fuel Savings</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2:00~10:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>X1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>X2</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>Improved
+Speed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>X4</t>
+          <t>Decreased
+Accel</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>Eliminate
+Stops</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>X6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X7</t>
+          <t>Decreased
+Idle</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6:00~14:00</t>
+          <t>2012_2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>X4</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>X5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X6</t>
+          <t>17.4%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10:00~18:00</t>
+          <t>2145_1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>X4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X5</t>
+          <t>2.7%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14:00~22:00</t>
+          <t>4234_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>58.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>X2</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>X3</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X4</t>
+          <t>3.3%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18:00~2:00</t>
+          <t>2032_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X4</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>X5</t>
+          <t>57.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>X6</t>
+          <t>21.7%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>X7</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>X1</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>X2</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X3</t>
+          <t>1.2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4171_1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>173.9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.1%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5%</t>
         </is>
       </c>
     </row>
